--- a/imo_bakery.xlsx
+++ b/imo_bakery.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IbMubarak\Desktop\Tech_buddies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\bakery-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2360807C-6050-4BF6-B818-3ECA3CC8FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858F472B-B8DC-4E74-BDFE-E714887BD1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="2" r:id="rId1"/>
@@ -1153,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C482A5-5CD1-4C29-A9B6-9937CE6D75C4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,21 +1307,21 @@
         <v>43</v>
       </c>
       <c r="F4" s="6">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="G4" s="5">
         <v>6</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="0"/>
-        <v>7800</v>
+        <v>12000</v>
       </c>
       <c r="I4" s="5">
         <v>0.3</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" si="1"/>
-        <v>2340</v>
+        <v>3600</v>
       </c>
       <c r="L4" t="s">
         <v>41</v>
@@ -1489,21 +1489,21 @@
         <v>42</v>
       </c>
       <c r="F9" s="6">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="G9" s="5">
         <v>16</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="0"/>
-        <v>35200</v>
+        <v>64000</v>
       </c>
       <c r="I9" s="5">
         <v>0.3</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="1"/>
-        <v>10560</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="C13" s="13">
         <f>SUM(imo_bakery[Profit])</f>
-        <v>93000</v>
+        <v>102900</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>53</v>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C14" s="13">
         <f>SUM(imo_bakery[Revenue])</f>
-        <v>310000</v>
+        <v>343000</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>54</v>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="C17" s="13">
         <f>AVERAGE(imo_bakery[Profit])</f>
-        <v>9300</v>
+        <v>10290</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="C18" s="13">
         <f>AVERAGE(imo_bakery[Price])</f>
-        <v>2850</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="C20" s="13">
         <f>MIN(imo_bakery[Profit])</f>
-        <v>2340</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
